--- a/Base/Backlog_28.xlsx
+++ b/Base/Backlog_28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA3990C-8DD5-45AF-AA71-A889655DBF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31A8362-FF67-4C03-87BC-BCF94DFC5765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -112,9 +112,6 @@
     <t>Kleberson Matias</t>
   </si>
   <si>
-    <t>Higor Pratz</t>
-  </si>
-  <si>
     <t>Mava Neves</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Resolvido</t>
+  </si>
+  <si>
+    <t>Higor Cruz</t>
   </si>
 </sst>
 </file>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K20"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -742,7 +742,7 @@
         <v>45852</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>11</v>
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="24">
         <v>2025</v>
@@ -812,7 +812,7 @@
         <v>45852</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>11</v>
@@ -882,7 +882,7 @@
         <v>45852</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>11</v>
@@ -917,7 +917,7 @@
         <v>45852</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>11</v>
@@ -952,7 +952,7 @@
         <v>45852</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>11</v>
@@ -1057,7 +1057,7 @@
         <v>45852</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>11</v>
@@ -1127,7 +1127,7 @@
         <v>45852</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="24" t="s">
         <v>11</v>
@@ -1138,7 +1138,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="24">
         <v>2025</v>
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="24">
         <v>2025</v>
@@ -1197,7 +1197,7 @@
         <v>45852</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16" s="24" t="s">
         <v>11</v>
@@ -1302,7 +1302,7 @@
         <v>45852</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>11</v>
@@ -1407,7 +1407,7 @@
         <v>45852</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K22" s="24" t="s">
         <v>11</v>
@@ -1442,7 +1442,7 @@
         <v>45852</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K23" s="24" t="s">
         <v>11</v>
@@ -1710,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:AM55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1770,7 +1770,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="13">
         <v>2025</v>
@@ -1794,7 +1794,7 @@
         <v>45852</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>15</v>
@@ -1805,7 +1805,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="13">
         <v>2025</v>
@@ -1829,7 +1829,7 @@
         <v>45852</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>15</v>
@@ -1840,7 +1840,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="13">
         <v>2025</v>
@@ -1864,7 +1864,7 @@
         <v>45852</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>15</v>
@@ -1875,7 +1875,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="13">
         <v>2025</v>
@@ -1899,7 +1899,7 @@
         <v>45852</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>15</v>
@@ -1910,7 +1910,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="13">
         <v>2025</v>
@@ -1934,7 +1934,7 @@
         <v>45852</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>15</v>
@@ -1945,7 +1945,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="13">
         <v>2025</v>
@@ -1969,7 +1969,7 @@
         <v>45852</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>15</v>
@@ -1980,7 +1980,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" s="18">
         <v>2025</v>
@@ -2102,7 +2102,7 @@
         <v>45852</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>15</v>
@@ -2137,7 +2137,7 @@
         <v>45852</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>15</v>
@@ -2172,7 +2172,7 @@
         <v>45852</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>15</v>
@@ -2183,7 +2183,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="18">
         <v>2025</v>
@@ -2246,7 +2246,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="18">
         <v>2025</v>
